--- a/docs/baseline.xlsx
+++ b/docs/baseline.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12990" activeTab="8"/>
+    <workbookView windowWidth="28245" windowHeight="12990" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="num_steps" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,16 @@
     <sheet name="original" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet4" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet5" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="170">
   <si>
     <t>相同参数下num_steps长度的影响</t>
   </si>
@@ -516,13 +519,22 @@
     <t>不收</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>base</t>
   </si>
   <si>
     <t>\</t>
+  </si>
+  <si>
+    <t>xl-fine</t>
+  </si>
+  <si>
+    <t>新参数</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>mem_eval_len</t>
   </si>
 </sst>
 </file>
@@ -531,9 +543,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -566,14 +578,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,11 +614,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -605,22 +639,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,7 +654,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,29 +669,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -674,14 +677,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,7 +729,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,7 +765,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,13 +849,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,145 +909,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,6 +932,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -931,6 +952,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,30 +1007,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -999,188 +1020,182 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1830,6 +1845,2441 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="J1">
+        <v>5</v>
+      </c>
+      <c r="K1">
+        <v>6</v>
+      </c>
+      <c r="L1">
+        <v>7</v>
+      </c>
+      <c r="M1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3" s="3">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>15</v>
+      </c>
+      <c r="M3">
+        <v>16</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>72.493</v>
+      </c>
+      <c r="G4">
+        <v>70.653</v>
+      </c>
+      <c r="H4">
+        <v>70.103</v>
+      </c>
+      <c r="I4">
+        <v>69.85</v>
+      </c>
+      <c r="J4">
+        <v>69.571</v>
+      </c>
+      <c r="K4" s="3">
+        <v>69.53</v>
+      </c>
+      <c r="L4" t="s">
+        <v>163</v>
+      </c>
+      <c r="M4" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6">
+        <v>400</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="R6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="R7">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>0.45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>20</v>
+      </c>
+      <c r="M8">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>80</v>
+      </c>
+      <c r="I9" s="3">
+        <v>50</v>
+      </c>
+      <c r="J9">
+        <v>40</v>
+      </c>
+      <c r="K9">
+        <v>25</v>
+      </c>
+      <c r="L9">
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10">
+        <v>70.989</v>
+      </c>
+      <c r="G10">
+        <v>70.395</v>
+      </c>
+      <c r="H10">
+        <v>70.2</v>
+      </c>
+      <c r="I10" s="3">
+        <v>69.85</v>
+      </c>
+      <c r="J10">
+        <v>70.078</v>
+      </c>
+      <c r="K10">
+        <v>70.082</v>
+      </c>
+      <c r="L10">
+        <v>70.343</v>
+      </c>
+      <c r="M10">
+        <v>70.717</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.0003</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.0003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="1">
+        <v>20000</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>25</v>
+      </c>
+      <c r="H14" s="3">
+        <v>40</v>
+      </c>
+      <c r="I14">
+        <v>50</v>
+      </c>
+      <c r="J14">
+        <v>60</v>
+      </c>
+      <c r="K14">
+        <v>75</v>
+      </c>
+      <c r="L14">
+        <v>80</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="R14" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15">
+        <v>80</v>
+      </c>
+      <c r="G15">
+        <v>200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>320</v>
+      </c>
+      <c r="I15">
+        <v>400</v>
+      </c>
+      <c r="J15">
+        <v>480</v>
+      </c>
+      <c r="K15">
+        <v>600</v>
+      </c>
+      <c r="L15">
+        <v>640</v>
+      </c>
+      <c r="M15">
+        <v>800</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16">
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <v>111.802</v>
+      </c>
+      <c r="G16">
+        <v>75.373</v>
+      </c>
+      <c r="H16" s="3">
+        <v>69.565</v>
+      </c>
+      <c r="I16">
+        <v>69.85</v>
+      </c>
+      <c r="J16">
+        <v>71.574</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>70</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R18">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="1">
+        <v>250</v>
+      </c>
+      <c r="E19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19">
+        <v>500</v>
+      </c>
+      <c r="G19">
+        <v>600</v>
+      </c>
+      <c r="H19">
+        <v>800</v>
+      </c>
+      <c r="I19">
+        <v>1000</v>
+      </c>
+      <c r="J19">
+        <v>1200</v>
+      </c>
+      <c r="K19">
+        <v>1500</v>
+      </c>
+      <c r="L19" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M19">
+        <v>3000</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R19" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="6:18">
+      <c r="F20">
+        <v>71.598</v>
+      </c>
+      <c r="G20">
+        <v>71.706</v>
+      </c>
+      <c r="H20">
+        <v>70.423</v>
+      </c>
+      <c r="I20">
+        <v>69.85</v>
+      </c>
+      <c r="J20">
+        <v>70.041</v>
+      </c>
+      <c r="K20">
+        <v>69.616</v>
+      </c>
+      <c r="L20" s="3">
+        <v>69.272</v>
+      </c>
+      <c r="M20" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R20" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="17:18">
+      <c r="Q22" t="s">
+        <v>98</v>
+      </c>
+      <c r="R22">
+        <v>67.736</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13">
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23">
+        <v>0.35</v>
+      </c>
+      <c r="G23">
+        <v>0.38</v>
+      </c>
+      <c r="H23">
+        <v>0.4</v>
+      </c>
+      <c r="I23">
+        <v>0.42</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="K23">
+        <v>0.48</v>
+      </c>
+      <c r="L23">
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="24" spans="6:13">
+      <c r="F24">
+        <v>72.704</v>
+      </c>
+      <c r="G24">
+        <v>71.832</v>
+      </c>
+      <c r="H24">
+        <v>71.144</v>
+      </c>
+      <c r="I24">
+        <v>70.21</v>
+      </c>
+      <c r="J24" s="3">
+        <v>69.85</v>
+      </c>
+      <c r="K24">
+        <v>70.717</v>
+      </c>
+      <c r="L24">
+        <v>71.419</v>
+      </c>
+      <c r="M24">
+        <v>75.759</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13">
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27">
+        <v>0.35</v>
+      </c>
+      <c r="G27">
+        <v>0.38</v>
+      </c>
+      <c r="H27">
+        <v>0.4</v>
+      </c>
+      <c r="I27">
+        <v>0.42</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="K27">
+        <v>0.48</v>
+      </c>
+      <c r="L27">
+        <v>0.5</v>
+      </c>
+      <c r="M27">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="28" spans="6:13">
+      <c r="F28">
+        <v>70.618</v>
+      </c>
+      <c r="G28">
+        <v>70.059</v>
+      </c>
+      <c r="H28">
+        <v>69.891</v>
+      </c>
+      <c r="I28">
+        <v>69.959</v>
+      </c>
+      <c r="J28" s="3">
+        <v>69.85</v>
+      </c>
+      <c r="K28">
+        <v>70.061</v>
+      </c>
+      <c r="L28">
+        <v>70.458</v>
+      </c>
+      <c r="M28">
+        <v>70.505</v>
+      </c>
+    </row>
+    <row r="31" spans="5:21">
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="4">
+        <v>5e-5</v>
+      </c>
+      <c r="G31" s="4">
+        <v>7e-5</v>
+      </c>
+      <c r="H31" s="4">
+        <v>9e-5</v>
+      </c>
+      <c r="I31" s="4">
+        <v>0.0001</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.00011</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0.00013</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0.00015</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0.00018</v>
+      </c>
+      <c r="N31" s="4">
+        <v>0.0002</v>
+      </c>
+      <c r="O31" s="4">
+        <v>0.00022</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0.00025</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>0.00028</v>
+      </c>
+      <c r="R31" s="5">
+        <v>0.0003</v>
+      </c>
+      <c r="S31" s="4">
+        <v>0.00032</v>
+      </c>
+      <c r="T31" s="4">
+        <v>0.00035</v>
+      </c>
+      <c r="U31" s="4">
+        <v>0.0004</v>
+      </c>
+    </row>
+    <row r="32" spans="6:21">
+      <c r="F32">
+        <v>97.375</v>
+      </c>
+      <c r="G32">
+        <v>86.7</v>
+      </c>
+      <c r="H32">
+        <v>80.69</v>
+      </c>
+      <c r="I32">
+        <v>78.742</v>
+      </c>
+      <c r="J32">
+        <v>77.043</v>
+      </c>
+      <c r="K32">
+        <v>74.768</v>
+      </c>
+      <c r="L32">
+        <v>73.336</v>
+      </c>
+      <c r="M32">
+        <v>71.934</v>
+      </c>
+      <c r="N32">
+        <v>71.505</v>
+      </c>
+      <c r="O32">
+        <v>70.903</v>
+      </c>
+      <c r="P32">
+        <v>70.868</v>
+      </c>
+      <c r="Q32">
+        <v>70.281</v>
+      </c>
+      <c r="R32" s="3">
+        <v>69.85</v>
+      </c>
+      <c r="S32">
+        <v>69.9</v>
+      </c>
+      <c r="T32" t="s">
+        <v>163</v>
+      </c>
+      <c r="U32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13">
+      <c r="E34" t="s">
+        <v>168</v>
+      </c>
+      <c r="F34">
+        <v>30</v>
+      </c>
+      <c r="G34">
+        <v>40</v>
+      </c>
+      <c r="H34">
+        <v>50</v>
+      </c>
+      <c r="I34">
+        <v>60</v>
+      </c>
+      <c r="J34" s="3">
+        <v>70</v>
+      </c>
+      <c r="K34">
+        <v>80</v>
+      </c>
+      <c r="L34">
+        <v>90</v>
+      </c>
+      <c r="M34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="6:13">
+      <c r="F35">
+        <v>76.69</v>
+      </c>
+      <c r="G35">
+        <v>73.03</v>
+      </c>
+      <c r="H35">
+        <v>71.111</v>
+      </c>
+      <c r="I35">
+        <v>70.591</v>
+      </c>
+      <c r="J35" s="3">
+        <v>69.85</v>
+      </c>
+      <c r="K35">
+        <v>69.993</v>
+      </c>
+      <c r="L35">
+        <v>70.1</v>
+      </c>
+      <c r="M35">
+        <v>70.488</v>
+      </c>
+    </row>
+    <row r="38" spans="5:13">
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38">
+        <v>30</v>
+      </c>
+      <c r="G38">
+        <v>40</v>
+      </c>
+      <c r="H38">
+        <v>50</v>
+      </c>
+      <c r="I38">
+        <v>55</v>
+      </c>
+      <c r="J38">
+        <v>60</v>
+      </c>
+      <c r="K38" s="3">
+        <v>65</v>
+      </c>
+      <c r="L38">
+        <v>70</v>
+      </c>
+      <c r="M38">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="6:13">
+      <c r="F39">
+        <v>73.337</v>
+      </c>
+      <c r="G39">
+        <v>71.645</v>
+      </c>
+      <c r="H39">
+        <v>70.236</v>
+      </c>
+      <c r="I39">
+        <v>70.029</v>
+      </c>
+      <c r="J39">
+        <v>69.85</v>
+      </c>
+      <c r="K39" s="3">
+        <v>69.707</v>
+      </c>
+      <c r="L39">
+        <v>69.934</v>
+      </c>
+      <c r="M39">
+        <v>69.989</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="1">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1">
+        <v>16</v>
+      </c>
+      <c r="L3" s="1">
+        <v>17</v>
+      </c>
+      <c r="M3" s="1">
+        <v>18</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4">
+        <v>320</v>
+      </c>
+      <c r="F4" s="1">
+        <v>68.474</v>
+      </c>
+      <c r="G4" s="1">
+        <v>68.18</v>
+      </c>
+      <c r="H4" s="1">
+        <v>68.031</v>
+      </c>
+      <c r="I4" s="3">
+        <v>67.736</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5">
+        <v>2000</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>0.45</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="R6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="R7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S7">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.0003</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="1">
+        <v>20000</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.00028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1">
+        <v>65</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13">
+        <v>70</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="3">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10</v>
+      </c>
+      <c r="K13" s="1">
+        <v>16</v>
+      </c>
+      <c r="L13" s="1">
+        <v>20</v>
+      </c>
+      <c r="M13" s="1">
+        <v>32</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S13" s="1">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="1">
+        <v>160</v>
+      </c>
+      <c r="G14" s="1">
+        <v>80</v>
+      </c>
+      <c r="H14" s="1">
+        <v>64</v>
+      </c>
+      <c r="I14" s="3">
+        <v>40</v>
+      </c>
+      <c r="J14" s="1">
+        <v>32</v>
+      </c>
+      <c r="K14" s="1">
+        <v>20</v>
+      </c>
+      <c r="L14" s="1">
+        <v>16</v>
+      </c>
+      <c r="M14" s="1">
+        <v>10</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" s="1">
+        <v>65</v>
+      </c>
+      <c r="T14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>70</v>
+      </c>
+      <c r="F15" s="1">
+        <v>67.764</v>
+      </c>
+      <c r="G15">
+        <v>67.937</v>
+      </c>
+      <c r="H15" s="1">
+        <v>68.18</v>
+      </c>
+      <c r="I15" s="3">
+        <v>67.736</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" s="1">
+        <v>68.651</v>
+      </c>
+      <c r="L15" s="1">
+        <v>68.238</v>
+      </c>
+      <c r="M15" s="1">
+        <v>68.822</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="S15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="1">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="R16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="1">
+        <v>250</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="R17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="6:19">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="R18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S18" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19">
+        <v>67.736</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="1">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1">
+        <v>30</v>
+      </c>
+      <c r="H19" s="1">
+        <v>35</v>
+      </c>
+      <c r="I19" s="3">
+        <v>40</v>
+      </c>
+      <c r="J19" s="1">
+        <v>45</v>
+      </c>
+      <c r="K19" s="1">
+        <v>50</v>
+      </c>
+      <c r="L19" s="1">
+        <v>60</v>
+      </c>
+      <c r="M19" s="1">
+        <v>80</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S19" s="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13">
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20" s="1">
+        <v>160</v>
+      </c>
+      <c r="G20" s="1">
+        <v>240</v>
+      </c>
+      <c r="H20" s="1">
+        <v>280</v>
+      </c>
+      <c r="I20" s="3">
+        <v>320</v>
+      </c>
+      <c r="J20" s="1">
+        <v>360</v>
+      </c>
+      <c r="K20" s="1">
+        <v>400</v>
+      </c>
+      <c r="L20" s="1">
+        <v>480</v>
+      </c>
+      <c r="M20" s="1">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="21" spans="6:20">
+      <c r="F21" s="1">
+        <v>74.909</v>
+      </c>
+      <c r="G21" s="1">
+        <v>69.254</v>
+      </c>
+      <c r="H21" s="1">
+        <v>68.209</v>
+      </c>
+      <c r="I21" s="3">
+        <v>67.736</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="R21" t="s">
+        <v>98</v>
+      </c>
+      <c r="S21">
+        <v>67.623</v>
+      </c>
+      <c r="T21">
+        <v>67.988</v>
+      </c>
+    </row>
+    <row r="22" spans="6:13">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="6:13">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="5:13">
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1800</v>
+      </c>
+      <c r="J24" s="1">
+        <v>2000</v>
+      </c>
+      <c r="K24" s="1">
+        <v>2200</v>
+      </c>
+      <c r="L24" s="1">
+        <v>2500</v>
+      </c>
+      <c r="M24" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="6:13">
+      <c r="F25" s="1">
+        <v>68.96</v>
+      </c>
+      <c r="G25" s="1">
+        <v>68.351</v>
+      </c>
+      <c r="H25" s="3">
+        <v>67.527</v>
+      </c>
+      <c r="I25" s="1">
+        <v>68.078</v>
+      </c>
+      <c r="J25" s="1">
+        <v>67.736</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="6:13">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="6:13">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="5:13">
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="29" spans="6:13">
+      <c r="F29" s="1">
+        <v>70.068</v>
+      </c>
+      <c r="G29" s="1">
+        <v>69.261</v>
+      </c>
+      <c r="H29" s="1">
+        <v>74.421</v>
+      </c>
+      <c r="I29" s="1">
+        <v>67.802</v>
+      </c>
+      <c r="J29" s="3">
+        <v>67.736</v>
+      </c>
+      <c r="K29" s="1">
+        <v>68.939</v>
+      </c>
+      <c r="L29" s="1">
+        <v>70.08</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="6:13">
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="6:13">
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="5:13">
+      <c r="E32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.42</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="K32" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="33" spans="6:13">
+      <c r="F33" s="1">
+        <v>67.942</v>
+      </c>
+      <c r="G33" s="1">
+        <v>67.63</v>
+      </c>
+      <c r="H33" s="1">
+        <v>67.874</v>
+      </c>
+      <c r="I33" s="3">
+        <v>67.365</v>
+      </c>
+      <c r="J33" s="1">
+        <v>67.736</v>
+      </c>
+      <c r="K33" s="1">
+        <v>67.969</v>
+      </c>
+      <c r="L33" s="1">
+        <v>67.91</v>
+      </c>
+      <c r="M33" s="1">
+        <v>67.998</v>
+      </c>
+    </row>
+    <row r="34" spans="6:13">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="6:13">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="5:21">
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="4">
+        <v>5e-5</v>
+      </c>
+      <c r="G36" s="4">
+        <v>8e-5</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.0001</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0.00012</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0.00014</v>
+      </c>
+      <c r="K36" s="4">
+        <v>0.00015</v>
+      </c>
+      <c r="L36" s="4">
+        <v>0.00016</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0.00018</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.0002</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0.00022</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0.00025</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>0.00028</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0.0003</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0.00032</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0.00035</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0.0004</v>
+      </c>
+    </row>
+    <row r="37" spans="6:21">
+      <c r="F37">
+        <v>99.943</v>
+      </c>
+      <c r="G37">
+        <v>83.839</v>
+      </c>
+      <c r="H37">
+        <v>78.458</v>
+      </c>
+      <c r="I37">
+        <v>75.02</v>
+      </c>
+      <c r="J37">
+        <v>72.62</v>
+      </c>
+      <c r="K37">
+        <v>71.853</v>
+      </c>
+      <c r="L37">
+        <v>71.242</v>
+      </c>
+      <c r="M37">
+        <v>70.266</v>
+      </c>
+      <c r="N37">
+        <v>69.328</v>
+      </c>
+      <c r="O37">
+        <v>68.722</v>
+      </c>
+      <c r="P37">
+        <v>68.251</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>67.659</v>
+      </c>
+      <c r="R37">
+        <v>67.736</v>
+      </c>
+      <c r="S37">
+        <v>67.997</v>
+      </c>
+      <c r="T37" t="s">
+        <v>163</v>
+      </c>
+      <c r="U37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="6:13">
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="5:13">
+      <c r="E39" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="1">
+        <v>30</v>
+      </c>
+      <c r="G39" s="1">
+        <v>40</v>
+      </c>
+      <c r="H39" s="1">
+        <v>50</v>
+      </c>
+      <c r="I39" s="1">
+        <v>60</v>
+      </c>
+      <c r="J39" s="1">
+        <v>70</v>
+      </c>
+      <c r="K39" s="3">
+        <v>80</v>
+      </c>
+      <c r="L39" s="1">
+        <v>90</v>
+      </c>
+      <c r="M39" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="6:13">
+      <c r="F40" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G40" s="1">
+        <v>71.171</v>
+      </c>
+      <c r="H40" s="1">
+        <v>69.607</v>
+      </c>
+      <c r="I40" s="1">
+        <v>68.178</v>
+      </c>
+      <c r="J40" s="1">
+        <v>67.736</v>
+      </c>
+      <c r="K40" s="3">
+        <v>67.523</v>
+      </c>
+      <c r="L40" s="1">
+        <v>67.778</v>
+      </c>
+      <c r="M40" s="1">
+        <v>67.741</v>
+      </c>
+    </row>
+    <row r="41" spans="6:13">
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="6:13">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="5:13">
+      <c r="E43" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" s="1">
+        <v>40</v>
+      </c>
+      <c r="G43" s="1">
+        <v>60</v>
+      </c>
+      <c r="H43" s="1">
+        <v>70</v>
+      </c>
+      <c r="I43">
+        <v>80</v>
+      </c>
+      <c r="J43" s="1">
+        <v>100</v>
+      </c>
+      <c r="K43" s="1">
+        <v>140</v>
+      </c>
+      <c r="L43" s="1">
+        <v>210</v>
+      </c>
+      <c r="M43" s="3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="6:13">
+      <c r="F44" s="1">
+        <v>68.631</v>
+      </c>
+      <c r="G44" s="1">
+        <v>67.72</v>
+      </c>
+      <c r="H44" s="1">
+        <v>67.736</v>
+      </c>
+      <c r="I44" s="1">
+        <v>67.996</v>
+      </c>
+      <c r="J44" s="1">
+        <v>67.475</v>
+      </c>
+      <c r="K44" s="1">
+        <v>67.817</v>
+      </c>
+      <c r="L44" s="1">
+        <v>67.724</v>
+      </c>
+      <c r="M44" s="3">
+        <v>67.156</v>
+      </c>
+    </row>
+    <row r="46" spans="5:13">
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46">
+        <v>50</v>
+      </c>
+      <c r="G46">
+        <v>55</v>
+      </c>
+      <c r="H46">
+        <v>60</v>
+      </c>
+      <c r="I46">
+        <v>65</v>
+      </c>
+      <c r="J46">
+        <v>70</v>
+      </c>
+      <c r="K46">
+        <v>75</v>
+      </c>
+      <c r="L46">
+        <v>80</v>
+      </c>
+      <c r="M46" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="6:13">
+      <c r="F47">
+        <v>69.883</v>
+      </c>
+      <c r="G47">
+        <v>68.006</v>
+      </c>
+      <c r="H47">
+        <v>68.391</v>
+      </c>
+      <c r="I47">
+        <v>67.736</v>
+      </c>
+      <c r="J47">
+        <v>68.038</v>
+      </c>
+      <c r="K47">
+        <v>67.731</v>
+      </c>
+      <c r="L47" t="s">
+        <v>163</v>
+      </c>
+      <c r="M47" s="3">
+        <v>67.602</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>16</v>
+      </c>
+      <c r="I2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>67.982</v>
+      </c>
+      <c r="G3" s="3">
+        <v>67.453</v>
+      </c>
+      <c r="H3">
+        <v>67.986</v>
+      </c>
+      <c r="I3">
+        <v>68.018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5">
+        <v>1500</v>
+      </c>
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>0.45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6">
+        <v>64</v>
+      </c>
+      <c r="G6" s="3">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="F7">
+        <v>67.558</v>
+      </c>
+      <c r="G7" s="3">
+        <v>67.453</v>
+      </c>
+      <c r="H7">
+        <v>67.581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.00028</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10" s="3">
+        <v>35</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="I10">
+        <v>45</v>
+      </c>
+      <c r="J10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11">
+        <v>240</v>
+      </c>
+      <c r="G11" s="3">
+        <v>280</v>
+      </c>
+      <c r="H11">
+        <v>320</v>
+      </c>
+      <c r="I11">
+        <v>360</v>
+      </c>
+      <c r="J11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1">
+        <v>90</v>
+      </c>
+      <c r="F12">
+        <v>67.231</v>
+      </c>
+      <c r="G12" s="3">
+        <v>66.46</v>
+      </c>
+      <c r="H12">
+        <v>67.453</v>
+      </c>
+      <c r="I12">
+        <v>67.74</v>
+      </c>
+      <c r="J12">
+        <v>69.555</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14">
+        <v>1000</v>
+      </c>
+      <c r="G14">
+        <v>1300</v>
+      </c>
+      <c r="H14">
+        <v>1500</v>
+      </c>
+      <c r="I14">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>280</v>
+      </c>
+      <c r="F15">
+        <v>68.055</v>
+      </c>
+      <c r="G15">
+        <v>67.676</v>
+      </c>
+      <c r="H15">
+        <v>67.453</v>
+      </c>
+      <c r="I15">
+        <v>67.701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="1">
+        <v>250</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <v>0.35</v>
+      </c>
+      <c r="G17">
+        <v>0.38</v>
+      </c>
+      <c r="H17">
+        <v>0.4</v>
+      </c>
+      <c r="I17">
+        <v>0.42</v>
+      </c>
+      <c r="J17">
+        <v>0.45</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12">
+      <c r="F18">
+        <v>69.849</v>
+      </c>
+      <c r="G18">
+        <v>68.659</v>
+      </c>
+      <c r="H18">
+        <v>68.596</v>
+      </c>
+      <c r="I18">
+        <v>68.286</v>
+      </c>
+      <c r="J18">
+        <v>67.453</v>
+      </c>
+      <c r="K18" s="3">
+        <v>67.143</v>
+      </c>
+      <c r="L18">
+        <v>67.204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19">
+        <v>67.453</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13">
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20">
+        <v>0.35</v>
+      </c>
+      <c r="G20">
+        <v>0.38</v>
+      </c>
+      <c r="H20">
+        <v>0.4</v>
+      </c>
+      <c r="I20">
+        <v>0.42</v>
+      </c>
+      <c r="J20">
+        <v>0.45</v>
+      </c>
+      <c r="K20">
+        <v>0.48</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9">
+      <c r="I21">
+        <v>67.982</v>
+      </c>
+    </row>
+    <row r="23" spans="5:14">
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="4">
+        <v>0.00018</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.0002</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.00023</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.00025</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0.00028</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.0003</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0.00032</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0.00035</v>
+      </c>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="10:10">
+      <c r="J24">
+        <v>67.453</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9">
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26">
+        <v>70</v>
+      </c>
+      <c r="G26">
+        <v>80</v>
+      </c>
+      <c r="H26">
+        <v>90</v>
+      </c>
+      <c r="I26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7">
+      <c r="G27">
+        <v>67.453</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9">
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>200</v>
+      </c>
+      <c r="H29">
+        <v>280</v>
+      </c>
+      <c r="I29">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="30" spans="8:8">
+      <c r="H30">
+        <v>67.453</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9">
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33">
+        <v>80</v>
+      </c>
+      <c r="G33">
+        <v>90</v>
+      </c>
+      <c r="H33">
+        <v>100</v>
+      </c>
+      <c r="I33">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7">
+      <c r="G34">
+        <v>67.453</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -3250,7 +5700,7 @@
       <c r="Y6">
         <v>0.4</v>
       </c>
-      <c r="Z6" s="8">
+      <c r="Z6" s="9">
         <v>0.4</v>
       </c>
       <c r="AA6">
@@ -3288,7 +5738,7 @@
       <c r="N7">
         <v>0.2</v>
       </c>
-      <c r="P7" s="6"/>
+      <c r="P7" s="8"/>
       <c r="Q7">
         <v>0.3</v>
       </c>
@@ -3348,7 +5798,7 @@
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AD8" s="6"/>
+      <c r="AD8" s="8"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
@@ -3365,7 +5815,7 @@
       <c r="B10" s="1">
         <v>0</v>
       </c>
-      <c r="L10" s="6"/>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
@@ -3422,7 +5872,7 @@
       <c r="R14">
         <v>80</v>
       </c>
-      <c r="V14" s="6"/>
+      <c r="V14" s="8"/>
       <c r="AA14">
         <v>100</v>
       </c>
@@ -3468,10 +5918,10 @@
       <c r="B17" s="1">
         <v>1000</v>
       </c>
-      <c r="W17" s="6"/>
+      <c r="W17" s="8"/>
     </row>
     <row r="18" spans="31:33">
-      <c r="AE18" s="9" t="s">
+      <c r="AE18" s="10" t="s">
         <v>96</v>
       </c>
       <c r="AG18" t="s">
@@ -3571,10 +6021,10 @@
       </c>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="3">
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -3636,10 +6086,10 @@
       </c>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="3">
         <v>4</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -3701,10 +6151,10 @@
       </c>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="3">
         <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -3825,10 +6275,10 @@
       </c>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="3">
         <v>200</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -3860,10 +6310,10 @@
       </c>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="3">
         <v>1000</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3889,10 +6339,10 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="3">
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -3903,10 +6353,10 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="3">
         <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -4109,10 +6559,10 @@
       </c>
     </row>
     <row r="37" spans="1:23">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -4174,10 +6624,10 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="3">
         <v>0.00025</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -4210,10 +6660,10 @@
       </c>
     </row>
     <row r="41" spans="1:23">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="3">
         <v>0</v>
       </c>
       <c r="D41" t="s">
@@ -4310,18 +6760,18 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="3">
         <v>20000</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="3">
         <v>60</v>
       </c>
     </row>
@@ -4334,18 +6784,18 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="3">
         <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="3">
         <v>70</v>
       </c>
     </row>
@@ -4358,10 +6808,10 @@
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="3">
         <v>70</v>
       </c>
     </row>
@@ -4430,18 +6880,18 @@
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="3">
         <v>200</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="3">
         <v>4000</v>
       </c>
     </row>
@@ -4745,10 +7195,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -4764,7 +7214,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>83</v>
       </c>
@@ -4780,8 +7230,14 @@
       <c r="J3">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="O3">
+        <v>12</v>
+      </c>
+      <c r="S3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
@@ -4797,8 +7253,14 @@
       <c r="J4">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="O4">
+        <v>8</v>
+      </c>
+      <c r="S4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
         <v>85</v>
       </c>
@@ -4814,8 +7276,14 @@
       <c r="J5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="O5">
+        <v>50</v>
+      </c>
+      <c r="S5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
         <v>86</v>
       </c>
@@ -4831,8 +7299,14 @@
       <c r="J6">
         <v>800</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="O6">
+        <v>400</v>
+      </c>
+      <c r="S6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
@@ -4848,8 +7322,14 @@
       <c r="J7">
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7">
+        <v>1000</v>
+      </c>
+      <c r="S7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -4859,7 +7339,7 @@
       <c r="E8">
         <v>0.2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="6">
         <v>0.3</v>
       </c>
       <c r="G8">
@@ -4880,8 +7360,26 @@
       <c r="N8">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8">
+        <v>0.45</v>
+      </c>
+      <c r="P8">
+        <v>0.45</v>
+      </c>
+      <c r="Q8">
+        <v>0.45</v>
+      </c>
+      <c r="R8">
+        <v>0.45</v>
+      </c>
+      <c r="S8">
+        <v>0.45</v>
+      </c>
+      <c r="T8">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
         <v>88</v>
       </c>
@@ -4912,8 +7410,26 @@
       <c r="N9">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="P9">
+        <v>0.45</v>
+      </c>
+      <c r="Q9">
+        <v>0.45</v>
+      </c>
+      <c r="R9">
+        <v>0.45</v>
+      </c>
+      <c r="S9">
+        <v>0.45</v>
+      </c>
+      <c r="T9">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
         <v>89</v>
       </c>
@@ -4930,11 +7446,14 @@
         <v>23</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="M10" s="3">
-        <v>3e-5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -4962,20 +7481,38 @@
       <c r="I11">
         <v>0.00045</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="7">
         <v>5e-5</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="2">
         <v>2e-5</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="4">
         <v>2e-5</v>
       </c>
-      <c r="N11" s="3">
+      <c r="M11" s="4">
+        <v>3e-5</v>
+      </c>
+      <c r="N11" s="4">
         <v>2e-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="O11" s="2">
+        <v>0.0003</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0.0003</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0.00025</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0.0003</v>
+      </c>
+      <c r="S11" s="7">
+        <v>3e-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
@@ -4992,8 +7529,14 @@
         <v>0</v>
       </c>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
         <v>91</v>
       </c>
@@ -5010,9 +7553,15 @@
         <v>30000</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="8"/>
+      <c r="O13" s="1">
+        <v>20000</v>
+      </c>
+      <c r="S13">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -5029,8 +7578,23 @@
         <v>60</v>
       </c>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="O14" s="1">
+        <v>60</v>
+      </c>
+      <c r="P14">
+        <v>70</v>
+      </c>
+      <c r="Q14">
+        <v>40</v>
+      </c>
+      <c r="R14">
+        <v>40</v>
+      </c>
+      <c r="S14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
         <v>92</v>
       </c>
@@ -5046,8 +7610,14 @@
       <c r="J15">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="O15">
+        <v>70</v>
+      </c>
+      <c r="S15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
         <v>93</v>
       </c>
@@ -5063,8 +7633,14 @@
       <c r="J16">
         <v>150</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="O16">
+        <v>70</v>
+      </c>
+      <c r="S16">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -5080,8 +7656,14 @@
       <c r="J17">
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="O17">
+        <v>70</v>
+      </c>
+      <c r="S17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
         <v>94</v>
       </c>
@@ -5098,8 +7680,14 @@
         <v>50</v>
       </c>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="O18" s="1">
+        <v>50</v>
+      </c>
+      <c r="S18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
         <v>95</v>
       </c>
@@ -5116,8 +7704,14 @@
         <v>250</v>
       </c>
       <c r="K19" s="1"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="O19" s="1">
+        <v>250</v>
+      </c>
+      <c r="S19">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>98</v>
       </c>
@@ -5154,8 +7748,32 @@
       <c r="L21">
         <v>78.523</v>
       </c>
-    </row>
-    <row r="22" spans="5:14">
+      <c r="M21">
+        <v>77.535</v>
+      </c>
+      <c r="N21">
+        <v>80.759</v>
+      </c>
+      <c r="O21">
+        <v>69.993</v>
+      </c>
+      <c r="P21">
+        <v>69.934</v>
+      </c>
+      <c r="Q21">
+        <v>72.086</v>
+      </c>
+      <c r="R21">
+        <v>71.645</v>
+      </c>
+      <c r="S21">
+        <v>98.191</v>
+      </c>
+      <c r="T21">
+        <v>85.215</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10">
       <c r="E22" t="s">
         <v>162</v>
       </c>
@@ -5168,24 +7786,16 @@
       <c r="J22" t="s">
         <v>162</v>
       </c>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22" t="s">
-        <v>164</v>
-      </c>
-      <c r="N22" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
         <v>5</v>
       </c>
@@ -5207,8 +7817,11 @@
       <c r="O27">
         <v>400</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -5230,8 +7843,11 @@
       <c r="O28">
         <v>400</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
         <v>11</v>
       </c>
@@ -5253,8 +7869,11 @@
       <c r="O29">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -5276,8 +7895,11 @@
       <c r="O30">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
         <v>13</v>
       </c>
@@ -5299,8 +7921,11 @@
       <c r="O31">
         <v>1000</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
@@ -5322,8 +7947,11 @@
       <c r="O32">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
         <v>15</v>
       </c>
@@ -5345,8 +7973,11 @@
       <c r="O33">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="P33">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -5368,8 +7999,11 @@
       <c r="O34">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
         <v>28</v>
       </c>
@@ -5391,8 +8025,11 @@
       <c r="O35">
         <v>300</v>
       </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="P35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -5432,8 +8069,11 @@
       <c r="O36">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="1" t="s">
         <v>129</v>
       </c>
@@ -5455,8 +8095,11 @@
       <c r="O37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="P37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -5478,8 +8121,11 @@
       <c r="O38">
         <v>1111</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="P38">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
         <v>118</v>
       </c>
@@ -5501,15 +8147,18 @@
       <c r="O39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="P39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B40" s="1">
         <v>0.00025</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="6">
         <v>0.0001</v>
       </c>
       <c r="D40">
@@ -5518,32 +8167,44 @@
       <c r="G40">
         <v>0.0002</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="4">
         <v>5e-5</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="7">
         <v>5e-5</v>
       </c>
       <c r="J40">
         <v>0.0001</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="4">
         <v>0.00015</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="4">
         <v>0.0002</v>
       </c>
       <c r="M40">
         <v>0.0001</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="4">
         <v>0.00015</v>
       </c>
-      <c r="O40" s="4">
+      <c r="O40" s="7">
         <v>8e-5</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="P40" s="7">
+        <v>0.0003</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>9e-5</v>
+      </c>
+      <c r="R40" s="4">
+        <v>0.00011</v>
+      </c>
+      <c r="S40" s="4">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -5565,15 +8226,18 @@
       <c r="O41">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="P41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
       <c r="A43" t="s">
         <v>98</v>
       </c>
       <c r="B43">
         <v>76.24</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>70.94</v>
       </c>
       <c r="D43">
@@ -5586,7 +8250,7 @@
         <v>72.41</v>
       </c>
       <c r="G43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H43">
         <v>74.89</v>
@@ -5606,25 +8270,34 @@
       <c r="M43">
         <v>73.46</v>
       </c>
-    </row>
-    <row r="44" spans="5:15">
+      <c r="N43">
+        <v>74.06</v>
+      </c>
+      <c r="O43">
+        <v>71.66</v>
+      </c>
+      <c r="P43" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q43">
+        <v>71.06</v>
+      </c>
+      <c r="R43">
+        <v>71.45</v>
+      </c>
+      <c r="S43">
+        <v>72.98</v>
+      </c>
+    </row>
+    <row r="44" spans="5:16">
       <c r="E44" t="s">
         <v>162</v>
       </c>
       <c r="G44" t="s">
         <v>163</v>
       </c>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44" t="s">
-        <v>164</v>
-      </c>
-      <c r="O44" t="s">
-        <v>164</v>
+      <c r="P44" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:1">
